--- a/utils/localisation_script/excel_to_json/ta/zlatest.xlsx
+++ b/utils/localisation_script/excel_to_json/ta/zlatest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sreejithv/TW/projects/ekStep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/ta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nireshkumarr/Documents/ekstep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/ta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A647E370-1503-1145-B0AE-99FF31955251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCE71A9-D9D8-B74F-A225-4ECC0F9F2845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="7" r:id="rId1"/>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>பிழை</t>
-  </si>
-  <si>
-    <t>Validate What They Say</t>
   </si>
   <si>
     <t>எல்லா மொழிகளும்</t>
@@ -197,12 +194,6 @@
   </si>
   <si>
     <t>டேஷ்போர்டை</t>
-  </si>
-  <si>
-    <t>Contribute Your Voice</t>
-  </si>
-  <si>
-    <t>You’ve earned a &lt;span id=\"current_badge_name_1\"&gt;&lt;/span&gt; Bhasha Samarthak Badge by validating &lt;span id=\"current_badge_count\"&gt;&lt;/span&gt; Images.</t>
   </si>
   <si>
     <r>
@@ -410,6 +401,15 @@
   </si>
   <si>
     <t>உருது</t>
+  </si>
+  <si>
+    <t>Validate what they say</t>
+  </si>
+  <si>
+    <t>Contribute your voice</t>
+  </si>
+  <si>
+    <t>You’ve earned a  &lt;span id="current_badge_name_1"&gt;&lt;/span&gt;  Bhasha Samarthak Badge by validating &lt;span id="current_badge_count"&gt;&lt;/span&gt; Images.</t>
   </si>
 </sst>
 </file>
@@ -718,12 +718,13 @@
   <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="14.5" style="1"/>
+    <col min="1" max="1" width="14.5" style="1"/>
+    <col min="2" max="2" width="120" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="51.1640625" style="1" customWidth="1"/>
@@ -951,7 +952,7 @@
     <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4" t="s">
@@ -987,7 +988,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1019,7 +1020,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1047,11 +1048,11 @@
     <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1079,11 +1080,11 @@
     <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1111,11 +1112,11 @@
     <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1142,14 +1143,14 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1181,7 +1182,7 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1209,7 +1210,7 @@
     <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
@@ -1241,11 +1242,11 @@
     <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1273,11 +1274,11 @@
     <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1305,11 +1306,11 @@
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1337,11 +1338,11 @@
     <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1369,11 +1370,11 @@
     <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1401,11 +1402,11 @@
     <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1433,11 +1434,11 @@
     <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1465,11 +1466,11 @@
     <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1497,11 +1498,11 @@
     <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1529,11 +1530,11 @@
     <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1561,11 +1562,11 @@
     <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1593,11 +1594,11 @@
     <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1625,11 +1626,11 @@
     <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1657,11 +1658,11 @@
     <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1689,11 +1690,11 @@
     <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1721,11 +1722,11 @@
     <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1753,11 +1754,11 @@
     <row r="33" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1785,11 +1786,11 @@
     <row r="34" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1817,11 +1818,11 @@
     <row r="35" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1853,7 +1854,7 @@
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1881,11 +1882,11 @@
     <row r="37" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1913,11 +1914,11 @@
     <row r="38" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1945,11 +1946,11 @@
     <row r="39" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1981,7 +1982,7 @@
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -2009,11 +2010,11 @@
     <row r="41" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -2041,11 +2042,11 @@
     <row r="42" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -2073,11 +2074,11 @@
     <row r="43" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -2105,11 +2106,11 @@
     <row r="44" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -2137,11 +2138,11 @@
     <row r="45" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -2169,11 +2170,11 @@
     <row r="46" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -2201,11 +2202,11 @@
     <row r="47" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -2237,7 +2238,7 @@
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -2265,11 +2266,11 @@
     <row r="49" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
